--- a/青岛中院V2.0/数据对接/sql/测试数据/测试数据说明.xlsx
+++ b/青岛中院V2.0/数据对接/sql/测试数据/测试数据说明.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BA8F1B-5E4B-43F0-A59D-EBAA04134A30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9CCDA-8980-4ACD-877F-D4A76EB60E81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="1245" windowWidth="26595" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块说明" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>表名</t>
   </si>
@@ -414,6 +414,9 @@
   <si>
     <t>中间-信访人数</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxjd_xfhjl</t>
   </si>
 </sst>
 </file>
@@ -684,48 +687,72 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -767,30 +794,6 @@
     </xf>
     <xf numFmtId="43" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1149,307 +1152,307 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="33" style="14" customWidth="1"/>
-    <col min="3" max="3" width="39.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="41.875" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="12.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="33" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="41.875" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1635,14 +1638,14 @@
       <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
       <c r="X2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1676,398 +1679,398 @@
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
     </row>
     <row r="4" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
     </row>
     <row r="5" spans="1:34" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="5" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
     </row>
     <row r="6" spans="1:34" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8" t="s">
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Y6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
     </row>
     <row r="7" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="10" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
+      <c r="S7" s="10"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Y7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
     </row>
     <row r="8" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="5" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="5" t="s">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="5" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="5" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="Y9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:34" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9" t="s">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="36" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="10" t="s">
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/青岛中院V2.0/数据对接/sql/测试数据/测试数据说明.xlsx
+++ b/青岛中院V2.0/数据对接/sql/测试数据/测试数据说明.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9CCDA-8980-4ACD-877F-D4A76EB60E81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4599E29-35D6-43FF-8E70-FCBB3A20F8EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1245" windowWidth="26595" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="0" windowWidth="26595" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块说明" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>表名</t>
   </si>
@@ -417,6 +417,61 @@
   </si>
   <si>
     <t>zxjd_xfhjl</t>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_zxzbph</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧-信访案件办结率</t>
+  </si>
+  <si>
+    <t>sy_zxzbph</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行指标排行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行实施</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxss_ccpm_pmjd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxss_wpsj_ajje</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxss_wpsj_pmxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧-网络拍卖-拍卖节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧-网络拍卖-涉及案件金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧-网络拍卖-拍卖信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -682,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -793,6 +848,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1210,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1273,30 +1331,50 @@
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
@@ -1455,10 +1533,11 @@
       <c r="E35" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="D3:D9"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1467,13 +1546,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E707F2-8BDF-4DD3-9101-E440A0A0979B}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C11"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2072,6 +2151,700 @@
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
     </row>
+    <row r="12" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+    </row>
+    <row r="13" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+    </row>
+    <row r="14" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+    </row>
+    <row r="15" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+    </row>
+    <row r="16" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+    </row>
+    <row r="17" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+    </row>
+    <row r="18" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+    </row>
+    <row r="19" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+    </row>
+    <row r="20" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+    </row>
+    <row r="21" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+    </row>
+    <row r="22" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+    </row>
+    <row r="23" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+    </row>
+    <row r="24" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+    </row>
+    <row r="25" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+    </row>
+    <row r="26" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+    </row>
+    <row r="27" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+    </row>
+    <row r="28" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+    </row>
+    <row r="29" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+    </row>
+    <row r="30" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="R2:W2"/>

--- a/青岛中院V2.0/数据对接/sql/测试数据/测试数据说明.xlsx
+++ b/青岛中院V2.0/数据对接/sql/测试数据/测试数据说明.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4599E29-35D6-43FF-8E70-FCBB3A20F8EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C01D162-6B0A-461F-8159-863BF5B87901}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="0" windowWidth="26595" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块说明" sheetId="1" r:id="rId1"/>
@@ -862,74 +862,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1210,7 +1142,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/青岛中院V2.0/数据对接/sql/测试数据/测试数据说明.xlsx
+++ b/青岛中院V2.0/数据对接/sql/测试数据/测试数据说明.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C01D162-6B0A-461F-8159-863BF5B87901}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A7F78-DF09-4434-9531-3CA47F884DA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块说明" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="192">
   <si>
     <t>表名</t>
   </si>
@@ -473,6 +473,265 @@
     <t>左侧-网络拍卖-拍卖信息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>sy_xycj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_xzrc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧-信用惩戒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧-限制人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用惩戒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制人次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制招投标(人数)</t>
+  </si>
+  <si>
+    <t>限制出境(人数)</t>
+  </si>
+  <si>
+    <t>限制高消费(人数)</t>
+  </si>
+  <si>
+    <t>限制企业法人/董事/高管(人数)</t>
+  </si>
+  <si>
+    <t>执行审查</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxsc_zxsclalxhfx</t>
+  </si>
+  <si>
+    <t>右侧-执行审查案类型化分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行审查案类型化分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区维度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>案类型(行为异议、案外人异、不予执行、变更最佳当事人、其他)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行宣传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxxc_xcqk</t>
+  </si>
+  <si>
+    <t>右侧-宣传情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传数</t>
+  </si>
+  <si>
+    <t>案件数量</t>
+  </si>
+  <si>
+    <t>转发材料数量</t>
+  </si>
+  <si>
+    <t>队伍建设</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwjs_rygcfb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwjs_xlfb</t>
+  </si>
+  <si>
+    <t>dwjs_nlfb</t>
+  </si>
+  <si>
+    <t>dwjs_gznxfb</t>
+  </si>
+  <si>
+    <t>dwjs_jaqk</t>
+  </si>
+  <si>
+    <t>dwjs_ajs_jal</t>
+  </si>
+  <si>
+    <t>dwjs_zxzx</t>
+  </si>
+  <si>
+    <t>dwjs_pjslys</t>
+  </si>
+  <si>
+    <t>dwjs_fgxx</t>
+  </si>
+  <si>
+    <t>dwjs_fgry</t>
+  </si>
+  <si>
+    <t>dwjs_rygcfb</t>
+  </si>
+  <si>
+    <t>人员构成分布情况</t>
+  </si>
+  <si>
+    <t>学历分布</t>
+  </si>
+  <si>
+    <t>年龄分布</t>
+  </si>
+  <si>
+    <t>工作年限分布</t>
+  </si>
+  <si>
+    <t>队伍建设_结案情况</t>
+  </si>
+  <si>
+    <t>队伍建设_结案率和案件数</t>
+  </si>
+  <si>
+    <t>队伍建设_执行质效</t>
+  </si>
+  <si>
+    <t>队伍建设_平均审理用时</t>
+  </si>
+  <si>
+    <t>法官信息</t>
+  </si>
+  <si>
+    <t>法官荣誉</t>
+  </si>
+  <si>
+    <t>人员类型</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>学历类型</t>
+  </si>
+  <si>
+    <t>年龄类型</t>
+  </si>
+  <si>
+    <t>年限类型</t>
+  </si>
+  <si>
+    <t>法官编号</t>
+  </si>
+  <si>
+    <t>今年结案数</t>
+  </si>
+  <si>
+    <t>今年未结数</t>
+  </si>
+  <si>
+    <t>结案率</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>已结数</t>
+  </si>
+  <si>
+    <t>未结数</t>
+  </si>
+  <si>
+    <t>执行质效</t>
+  </si>
+  <si>
+    <t>执行标的到位率</t>
+  </si>
+  <si>
+    <t>实际执行率</t>
+  </si>
+  <si>
+    <t>平均审理用时</t>
+  </si>
+  <si>
+    <t>用时类型</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>法官id</t>
+  </si>
+  <si>
+    <t>法官姓名</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>学历</t>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>职级</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
+    <t>荣誉1</t>
+  </si>
+  <si>
+    <t>荣誉2</t>
+  </si>
+  <si>
+    <t>荣誉3</t>
+  </si>
+  <si>
+    <t>荣誉4</t>
+  </si>
+  <si>
+    <t>荣誉5</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +740,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +835,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -602,7 +876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -620,68 +894,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -737,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -793,16 +1005,25 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,44 +1035,54 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -862,6 +1093,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1136,13 +1435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1156,13 +1455,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -1182,7 +1481,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1191,248 +1490,308 @@
       <c r="C3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="14" t="s">
-        <v>108</v>
+      <c r="A13" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
@@ -1464,15 +1823,45 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="D3:D9"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1480,19 +1869,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E707F2-8BDF-4DD3-9101-E440A0A0979B}">
   <dimension ref="A1:AH30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="5" width="20.625" customWidth="1"/>
-    <col min="24" max="34" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="41" customWidth="1"/>
+    <col min="3" max="4" width="20.625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="41" customWidth="1"/>
+    <col min="6" max="23" width="9" style="41"/>
+    <col min="24" max="34" width="25.625" style="41" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
@@ -1502,10 +1894,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1604,10 +1996,10 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1649,14 +2041,14 @@
       <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
       <c r="X2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1690,16 +2082,16 @@
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1728,14 +2120,14 @@
       <c r="AH3" s="3"/>
     </row>
     <row r="4" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1766,10 +2158,10 @@
     <row r="5" spans="1:34" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="29" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2"/>
@@ -1812,10 +2204,10 @@
     <row r="6" spans="1:34" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="8"/>
@@ -1860,10 +2252,10 @@
     <row r="7" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="31" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="10"/>
@@ -1906,10 +2298,10 @@
     <row r="8" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="29" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="4"/>
@@ -1952,10 +2344,10 @@
     <row r="9" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="29" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="4"/>
@@ -1998,10 +2390,10 @@
     <row r="10" spans="1:34" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="32" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="16"/>
@@ -2042,10 +2434,10 @@
     <row r="11" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="31" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="17"/>
@@ -2086,10 +2478,10 @@
     <row r="12" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="31" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="17"/>
@@ -2132,8 +2524,12 @@
     <row r="13" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>116</v>
+      </c>
       <c r="E13" s="17"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -2147,16 +2543,26 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="17"/>
+      <c r="R13" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="10"/>
+      <c r="X13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -2168,8 +2574,12 @@
     <row r="14" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>119</v>
+      </c>
       <c r="E14" s="17"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -2183,14 +2593,20 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="17"/>
+      <c r="R14" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="17"/>
+      <c r="X14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y14" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="Z14" s="16"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -2204,8 +2620,12 @@
     <row r="15" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="E15" s="17"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -2219,14 +2639,20 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="17"/>
+      <c r="R15" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="17"/>
+      <c r="X15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="Z15" s="16"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -2240,8 +2666,12 @@
     <row r="16" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>134</v>
+      </c>
       <c r="E16" s="17"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -2255,15 +2685,23 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="17"/>
+      <c r="R16" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="16"/>
+      <c r="X16" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y16" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>137</v>
+      </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
@@ -2276,35 +2714,47 @@
     <row r="17" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
+      <c r="C17" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z17" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="40"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
@@ -2312,35 +2762,45 @@
     <row r="18" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
+      <c r="C18" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="40"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
@@ -2348,35 +2808,47 @@
     <row r="19" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
+      <c r="C19" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y19" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z19" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
@@ -2384,35 +2856,47 @@
     <row r="20" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
+      <c r="C20" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y20" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z20" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
@@ -2420,35 +2904,49 @@
     <row r="21" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
+      <c r="C21" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y21" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z21" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA21" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
@@ -2456,35 +2954,51 @@
     <row r="22" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
+      <c r="C22" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y22" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z22" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA22" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB22" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -2492,35 +3006,35 @@
     <row r="23" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
@@ -2528,35 +3042,45 @@
     <row r="24" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
+      <c r="C24" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y24" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
@@ -2564,35 +3088,45 @@
     <row r="25" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
+      <c r="C25" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y25" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
@@ -2600,35 +3134,57 @@
     <row r="26" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
+      <c r="C26" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y26" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z26" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA26" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB26" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC26" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD26" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE26" s="35" t="s">
+        <v>186</v>
+      </c>
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
@@ -2636,35 +3192,55 @@
     <row r="27" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
+      <c r="C27" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y27" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z27" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA27" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB27" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC27" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD27" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE27" s="36"/>
       <c r="AF27" s="10"/>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
@@ -2672,35 +3248,35 @@
     <row r="28" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
@@ -2708,8 +3284,8 @@
     <row r="29" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="17"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -2744,8 +3320,8 @@
     <row r="30" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="17"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -2785,6 +3361,30 @@
     <mergeCell ref="F3:H4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16:Z16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>